--- a/orders.xlsx
+++ b/orders.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,364 +464,6 @@
           <t>status</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>cost_per_roll</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>comment</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2025-07-09 13:48:10</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Сделан</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2025-07-09 13:52:02</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Сделан</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2025-07-09 13:52:11</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Сделан</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2025-07-09 14:02:01</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Сделан</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>10</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2025-07-09 14:02:14</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Сделан</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2025-07-09 14:04:22</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Сделан</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2025-07-09 14:04:38</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Сделан</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>6</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2025-07-09 14:10:34</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Сделан</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>3</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2025-07-09 14:30:21</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Сделан</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="H10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2025-07-09 14:30:38</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>95</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Сделан</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>95</v>
-      </c>
-      <c r="H11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="n">
-        <v>10</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2025-07-09 14:33:15</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>594</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Сделан</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>59.4</v>
-      </c>
-      <c r="H12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2025-07-09 16:51:49</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Сделан</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="H13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>2</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2025-07-10 20:47:14</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>118.8</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Сделан</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>59.4</v>
-      </c>
-      <c r="H14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
